--- a/public/data/result/output/index_data.xlsx
+++ b/public/data/result/output/index_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,765 +436,990 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>father_name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>常住人口出生率</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A1</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>常住人口死亡率</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A2</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>常住人口自然增长率</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A3</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>平均预期寿命</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>岁</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A4</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>常住人口抚养比</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A5</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>每十万人口高等学校平均在校生数</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>人</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A6</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>人口规模巨大的现代化</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>人均GDP基尼系数</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>B1</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>城镇化率</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>B2</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>城镇登记失业率</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>B3</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>粗离婚率</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>B4</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>城市居民最低生活保障人数</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>人</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>B5</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>农村居民最低生活保障人数</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>人</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>B6</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>孤儿数</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>人</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>B7</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>全体人民共同富裕的现代化</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>人均农村居民消费支出</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>元</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C1</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>人均城镇居民消费支出</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>元</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C2</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>人均城市道路面积</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>平方米</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C3</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>城市每万人拥有公共交通车辆</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>标台</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C4</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>城市道路照明灯</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>千盏</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C5</t>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>互联网普及率</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C6</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>城镇居民每百户家用电脑拥有量</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C7</t>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>C8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>居民平均每百户年末移动电话拥有量</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>台</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C8</t>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>C9</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>单位人口拥有公共图书馆藏量</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>册</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C9</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>艺术表演场馆演出场次</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>万场次</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C10</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>每万人博物馆文物藏品</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>件</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C11</t>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>博物馆从业人员</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>人</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C12</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>规模以上工业企业R&amp;D经费/GDP</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C13</t>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>C14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>地方财政教育支出/GDP</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C14</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>物质文明和精神文明相协调的现代化</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>城市绿地面积</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>公顷</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D1</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>人均公园绿地面积</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>平方米</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>D2</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>自然保护区占辖区面积比重</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>D3</t>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>环境保护支出</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>亿元</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>D4</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>万元GDP能源消费量</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>吨标准煤/万元</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D5</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>生活垃圾清运量</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>万吨</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>D6</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>每万人拥有公共厕所</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>座/万人</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>D7</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>城市污水日处理能力</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>万立方米</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>D8</t>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>人与自然和谐共生的现代化</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>第一产业增加值占比</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E1</t>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>第二产业增加值占比</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>E2</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>第三产业增加值占比</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>E3</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>人均GDP</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>元/人</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E4</t>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>人均一般公共预算收入</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>元/人</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E5</t>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>人均实际利用外资</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>美元/人</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E6</t>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>人均对外直接投资净额</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>美元/人</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E7</t>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>人均境内货源地出口总额</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>美元/人</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>E8</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>人均境内目的地进口总额</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>美元/人</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>E9</t>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>走和平发展道路的现代化</t>
         </is>
       </c>
     </row>
